--- a/export/T_SOL_summary_NonMast.xlsx
+++ b/export/T_SOL_summary_NonMast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Description</t>
   </si>
@@ -193,6 +193,186 @@
   </si>
   <si>
     <t>-65.44 ± 83.18</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Latency to AB</t>
+  </si>
+  <si>
+    <t>AB Rel. to Sunrise</t>
+  </si>
+  <si>
+    <t>Latency to QB</t>
+  </si>
+  <si>
+    <t>QB Rel. to Sunset</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>44.57 ± 29.38</t>
+  </si>
+  <si>
+    <t>12.98 ± 70.52</t>
+  </si>
+  <si>
+    <t>73.58 ± 100.07</t>
+  </si>
+  <si>
+    <t>-66.96 ± 90.81</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>42.09 ± 33.03</t>
+  </si>
+  <si>
+    <t>40.54 ± 78.53</t>
+  </si>
+  <si>
+    <t>108.06 ± 120.79</t>
+  </si>
+  <si>
+    <t>-101.81 ± 102.13</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>26.99 ± 13.77</t>
+  </si>
+  <si>
+    <t>57.63 ± 54.32</t>
+  </si>
+  <si>
+    <t>105.36 ± 124.58</t>
+  </si>
+  <si>
+    <t>-81.88 ± 78.90</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>27.15 ± 14.62</t>
+  </si>
+  <si>
+    <t>-7.62 ± 23.92</t>
+  </si>
+  <si>
+    <t>68.06 ± 87.58</t>
+  </si>
+  <si>
+    <t>-31.87 ± 57.13</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>39.84 ± 28.30</t>
+  </si>
+  <si>
+    <t>17.96 ± 68.12</t>
+  </si>
+  <si>
+    <t>81.62 ± 105.49</t>
+  </si>
+  <si>
+    <t>-68.78 ± 90.16</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Latency to AB</t>
+  </si>
+  <si>
+    <t>AB Rel. to Sunrise</t>
+  </si>
+  <si>
+    <t>Latency to QB</t>
+  </si>
+  <si>
+    <t>QB Rel. to Sunset</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>44.14 ± 27.69</t>
+  </si>
+  <si>
+    <t>13.93 ± 70.73</t>
+  </si>
+  <si>
+    <t>74.90 ± 101.84</t>
+  </si>
+  <si>
+    <t>-66.68 ± 90.98</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>42.88 ± 28.84</t>
+  </si>
+  <si>
+    <t>44.43 ± 78.70</t>
+  </si>
+  <si>
+    <t>107.13 ± 116.94</t>
+  </si>
+  <si>
+    <t>-108.41 ± 101.03</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>26.99 ± 15.00</t>
+  </si>
+  <si>
+    <t>37.23 ± 50.16</t>
+  </si>
+  <si>
+    <t>108.07 ± 129.21</t>
+  </si>
+  <si>
+    <t>-63.19 ± 72.09</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>27.67 ± 15.44</t>
+  </si>
+  <si>
+    <t>-5.30 ± 23.45</t>
+  </si>
+  <si>
+    <t>64.78 ± 78.02</t>
+  </si>
+  <si>
+    <t>-31.65 ± 56.45</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>40.91 ± 26.87</t>
+  </si>
+  <si>
+    <t>17.45 ± 68.63</t>
+  </si>
+  <si>
+    <t>80.42 ± 103.67</t>
+  </si>
+  <si>
+    <t>-69.07 ± 90.94</t>
   </si>
 </sst>
 </file>
@@ -213,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,14 +403,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,111 +428,111 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="13.140625" customWidth="true"/>
     <col min="3" max="3" width="14.140625" customWidth="true"/>
-    <col min="4" max="4" width="13.140625" customWidth="true"/>
+    <col min="4" max="4" width="14.140625" customWidth="true"/>
     <col min="5" max="5" width="12.140625" customWidth="true"/>
-    <col min="6" max="6" width="12.140625" customWidth="true"/>
+    <col min="6" max="6" width="13.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
